--- a/fortune_city.xlsx
+++ b/fortune_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/fortune_city/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8371BA31-E253-F442-9D68-0046382405CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18070C84-15F7-A449-8E02-DE063305C903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{69F0C2EB-5539-304A-915E-BB8FA7D0757C}"/>
   </bookViews>
@@ -779,7 +779,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/fortune_city.xlsx
+++ b/fortune_city.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/fortune_city/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18070C84-15F7-A449-8E02-DE063305C903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE97FC1-1A8C-3440-9BEA-31E8C10FE43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{69F0C2EB-5539-304A-915E-BB8FA7D0757C}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" xr2:uid="{69F0C2EB-5539-304A-915E-BB8FA7D0757C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>lv1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>愛德華 瓦德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍妮佛 羅素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉克 金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +575,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC6B13D-5779-FB44-977F-C019CCF6ED6E}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -617,6 +625,9 @@
       <c r="D2">
         <v>46</v>
       </c>
+      <c r="E2">
+        <v>68</v>
+      </c>
       <c r="F2">
         <v>110</v>
       </c>
@@ -634,6 +645,9 @@
       <c r="D3" s="2">
         <v>46</v>
       </c>
+      <c r="E3" s="2">
+        <v>68</v>
+      </c>
       <c r="F3" s="2">
         <v>110</v>
       </c>
@@ -651,7 +665,9 @@
       <c r="D4" s="2">
         <v>46</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2">
+        <v>68</v>
+      </c>
       <c r="F4" s="2">
         <v>110</v>
       </c>
@@ -669,6 +685,9 @@
       <c r="D5" s="2">
         <v>46</v>
       </c>
+      <c r="E5" s="2">
+        <v>68</v>
+      </c>
       <c r="F5" s="2">
         <v>110</v>
       </c>
@@ -685,6 +704,9 @@
       </c>
       <c r="D6" s="2">
         <v>48</v>
+      </c>
+      <c r="E6" s="2">
+        <v>72</v>
       </c>
       <c r="F6" s="2">
         <v>115</v>
@@ -703,6 +725,9 @@
       <c r="D7" s="2">
         <v>48</v>
       </c>
+      <c r="E7" s="2">
+        <v>72</v>
+      </c>
       <c r="F7" s="2">
         <v>115</v>
       </c>
@@ -720,6 +745,9 @@
       <c r="D8" s="2">
         <v>48</v>
       </c>
+      <c r="E8" s="2">
+        <v>72</v>
+      </c>
       <c r="F8" s="2">
         <v>115</v>
       </c>
@@ -737,7 +765,12 @@
       <c r="D9" s="3">
         <v>48</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
@@ -749,10 +782,15 @@
       <c r="C10" s="3">
         <v>37</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
@@ -766,6 +804,12 @@
       </c>
       <c r="D11" s="2">
         <v>50</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -778,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD4B525-82E9-1C4B-871E-CB163C07666E}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -830,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -865,13 +909,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -935,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1107,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA031136-E3A4-694B-A2E2-71C1BC0ED9A9}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1716,6 +1760,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fortune_city.xlsx
+++ b/fortune_city.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyuxiang/Desktop/code/fortune_city/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE97FC1-1A8C-3440-9BEA-31E8C10FE43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2E732-1900-554D-9A65-455603190367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" xr2:uid="{69F0C2EB-5539-304A-915E-BB8FA7D0757C}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{69F0C2EB-5539-304A-915E-BB8FA7D0757C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>lv1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>克拉克 金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰勒 安德森</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +579,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC6B13D-5779-FB44-977F-C019CCF6ED6E}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -822,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD4B525-82E9-1C4B-871E-CB163C07666E}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -868,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -877,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -912,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -947,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1151,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA031136-E3A4-694B-A2E2-71C1BC0ED9A9}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1830,6 +1834,41 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
